--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_0_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_0_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.29000000000051</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.178702015700253e-05</v>
+        <v>6.057010099147497e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>4.178702015700253e-05</v>
+        <v>6.057010099147497e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>39.59476964345773</v>
+        <v>55.75189959573235</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[19.610208789024895, 59.57933049789057]</t>
+          <t>[29.738893750290686, 81.76490544117402]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.0002402809473132095</v>
+        <v>8.587054962827523e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0002402809473132095</v>
+        <v>8.587054962827523e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.33965812855781</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.735868549489501, 1.9434477076261185]</t>
+          <t>[1.4654476241970418, 2.496921488438735]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>5.265838822854363e-05</v>
+        <v>8.341698443103951e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>5.265838822854363e-05</v>
+        <v>8.341698443103951e-10</v>
       </c>
       <c r="T2" t="n">
-        <v>51.52430805460136</v>
+        <v>67.78906701511309</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[40.153688127839025, 62.8949279813637]</t>
+          <t>[53.057205724303685, 82.5209283059225]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>8.402611939573035e-12</v>
+        <v>5.323519403077626e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>8.402611939573035e-12</v>
+        <v>5.323519403077626e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>19.89783783783824</v>
+        <v>17.79495495495538</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.46756756756792</v>
+        <v>15.66164164164202</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.32810810810856</v>
+        <v>19.92826826826874</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.29000000000051</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>6.92208562380614e-06</v>
+        <v>4.263501187451446e-05</v>
       </c>
       <c r="I3" t="n">
-        <v>6.92208562380614e-06</v>
+        <v>4.263501187451446e-05</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>60.10743300804772</v>
+        <v>41.28555549840154</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[31.06669950013535, 89.1481665159601]</t>
+          <t>[21.61077542697012, 60.96033556983295]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001374354118390819</v>
+        <v>0.0001144918681363905</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001374354118390819</v>
+        <v>0.0001144918681363905</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8993948938205012</v>
+        <v>1.427710775505272</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.4339737599553466, 1.3648160276856558]</t>
+          <t>[0.861658045128733, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0003257440716508686</v>
+        <v>7.044243359066726e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0003257440716508686</v>
+        <v>7.044243359066726e-06</v>
       </c>
       <c r="T3" t="n">
-        <v>65.1614099774617</v>
+        <v>60.10646442365576</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.950137355960564, 80.37268259896284]</t>
+          <t>[48.06571554349004, 72.14721330382147]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.280353849139829e-11</v>
+        <v>4.389821839367869e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>4.280353849139829e-11</v>
+        <v>4.389821839367869e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>21.66990990991035</v>
+        <v>20.08436436436484</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.79657657657698</v>
+        <v>17.74292292292335</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.54324324324372</v>
+        <v>22.42580580580634</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.29000000000051</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001018061216998101</v>
+        <v>5.137887753026149e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001018061216998101</v>
+        <v>5.137887753026149e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40.34423024735537</v>
+        <v>52.93978578011221</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[13.271211036464521, 67.41724945824622]</t>
+          <t>[31.098288122016484, 74.78128343820794]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.004372595513852273</v>
+        <v>1.362037535823646e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004372595513852273</v>
+        <v>1.362037535823646e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6729738016698859</v>
+        <v>0.5975001042863468</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.031447373909808896, 1.3145002294299628]</t>
+          <t>[0.16981581911296129, 1.0251843894597323]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.04019519088802004</v>
+        <v>0.007234478205516925</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04019519088802004</v>
+        <v>0.007234478205516925</v>
       </c>
       <c r="T4" t="n">
-        <v>74.48453509334072</v>
+        <v>56.92643290047059</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[60.42349866674286, 88.54557151993859]</t>
+          <t>[45.497298169159265, 68.35556763178192]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.572520305780927e-14</v>
+        <v>4.705125178361413e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>6.572520305780927e-14</v>
+        <v>4.705125178361413e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>22.58126126126172</v>
+        <v>23.51847847847904</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.99909909909951</v>
+        <v>21.74938938938991</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.16342342342393</v>
+        <v>25.28756756756817</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.29000000000051</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.007806237924782855</v>
+        <v>0.000887690086261661</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007806237924782855</v>
+        <v>0.000887690086261661</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>29.66478550768536</v>
+        <v>40.95747589843733</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[7.206853253766283, 52.122717761604434]</t>
+          <t>[15.175472862575191, 66.73947893429947]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01077649919982782</v>
+        <v>0.002522823303553245</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01077649919982782</v>
+        <v>0.002522823303553245</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2452895164965003</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.7295790747075399, 1.2201581077005406]</t>
+          <t>[-0.2201316173686534, 1.1383949355350405]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.6147874409435858</v>
+        <v>0.1801702110084309</v>
       </c>
       <c r="S5" t="n">
-        <v>0.6147874409435858</v>
+        <v>0.1801702110084309</v>
       </c>
       <c r="T5" t="n">
-        <v>55.67165326593247</v>
+        <v>51.57401542087204</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.17960475110505, 68.16370178075988]</t>
+          <t>[37.785460785304785, 65.3625700564393]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.370037416847936e-11</v>
+        <v>1.660075854559295e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>1.370037416847936e-11</v>
+        <v>1.660075854559295e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>24.3027027027032</v>
+        <v>24.09083083083141</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.37882882882924</v>
+        <v>21.28110110110161</v>
       </c>
       <c r="Z5" t="n">
-        <v>28.22657657657715</v>
+        <v>26.9005605605612</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.19000000000034</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005363964906135443</v>
+        <v>3.839671729455318e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005363964906135443</v>
+        <v>3.839671729455318e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>44.01393520752447</v>
+        <v>55.6140775628056</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[19.37055056251745, 68.65731985253149]</t>
+          <t>[33.66971654990307, 77.55843857570814]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0007959093982738974</v>
+        <v>6.493144864228029e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0007959093982738974</v>
+        <v>6.493144864228029e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1572368695490383</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.5471843060306547, 0.8616580451287312]</t>
+          <t>[-0.8050527720910781, 0.10063159651138509]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.6551738193502867</v>
+        <v>0.1242317158919686</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6551738193502867</v>
+        <v>0.1242317158919686</v>
       </c>
       <c r="T6" t="n">
-        <v>66.09796845014966</v>
+        <v>64.2098381437019</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[51.3410209913562, 80.85491590894313]</t>
+          <t>[51.879761908015425, 76.53991437938838]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.182010045397419e-11</v>
+        <v>1.143529715363911e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>1.182010045397419e-11</v>
+        <v>1.143529715363911e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>23.58464464464498</v>
+        <v>1.319559559559572</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.87265265265295</v>
+        <v>-0.3770170170170226</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.29663663663701</v>
+        <v>3.016136136136167</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.19000000000034</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.005490073700940457</v>
+        <v>0.586556030580129</v>
       </c>
       <c r="I7" t="n">
-        <v>0.005490073700940457</v>
+        <v>0.586556030580129</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>33.62454276237898</v>
+        <v>11.08330939697693</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[9.385772710393702, 57.86331281436426]</t>
+          <t>[-18.01788171315833, 40.18450050711218]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.007621844707238035</v>
+        <v>0.4470401914856685</v>
       </c>
       <c r="O7" t="n">
-        <v>0.007621844707238035</v>
+        <v>0.4470401914856685</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.1509473947670772</v>
+        <v>0.6603948521059619</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0755001877154244, 0.77360539818127]</t>
+          <t>[-2.4717635893108896, 3.7925532935228135]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7438072491551013</v>
+        <v>0.6731078855633443</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7438072491551013</v>
+        <v>0.6731078855633443</v>
       </c>
       <c r="T7" t="n">
-        <v>71.48797459980418</v>
+        <v>57.53996632521</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[57.55639756286513, 85.41955163674322]</t>
+          <t>[42.32121674905164, 72.75871590136836]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.831867990631508e-13</v>
+        <v>1.259604420766891e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.831867990631508e-13</v>
+        <v>1.259604420766891e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5811411411411491</v>
+        <v>21.06582582582604</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.97834834834839</v>
+        <v>9.331171171171265</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.140630630630688</v>
+        <v>32.80048048048082</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.19000000000034</v>
+        <v>23.54000000000024</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.494120523501621e-06</v>
+        <v>8.139166135512355e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>4.494120523501621e-06</v>
+        <v>8.139166135512355e-06</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>59.10779082595168</v>
+        <v>54.5511339757145</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[35.06030093893946, 83.1552807129639]</t>
+          <t>[32.21079593631603, 76.89147201511297]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.084231754711062e-05</v>
+        <v>1.207779598044745e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.084231754711062e-05</v>
+        <v>1.207779598044745e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>0.1195000208572692</v>
+        <v>-0.006289474781961957</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.37107901213573236, 0.6100790538502707]</t>
+          <t>[-0.5220264069028095, 0.5094474573388856]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.6260827817940791</v>
+        <v>0.9805127398549558</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6260827817940791</v>
+        <v>0.9805127398549558</v>
       </c>
       <c r="T8" t="n">
-        <v>58.65545179120723</v>
+        <v>60.57930095554254</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[44.01267953324812, 73.29822404916635]</t>
+          <t>[46.44095686562211, 74.71764504546297]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.745061955522488e-10</v>
+        <v>4.25224300215632e-11</v>
       </c>
       <c r="W8" t="n">
-        <v>2.745061955522488e-10</v>
+        <v>4.25224300215632e-11</v>
       </c>
       <c r="X8" t="n">
-        <v>23.72992992993027</v>
+        <v>0.0235635635635667</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.84122122122153</v>
+        <v>-1.908648648648668</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.61863863863901</v>
+        <v>1.955775775775801</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_0_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_0_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.27000000000051</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>6.057010099147497e-06</v>
+        <v>0.0002982014831331981</v>
       </c>
       <c r="I2" t="n">
-        <v>6.057010099147497e-06</v>
+        <v>0.0002982014831331981</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>55.75189959573235</v>
+        <v>42.50225317657863</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[29.738893750290686, 81.76490544117402]</t>
+          <t>[18.76230735876605, 66.24219899439122]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.587054962827523e-05</v>
+        <v>0.000775667591808693</v>
       </c>
       <c r="O2" t="n">
-        <v>8.587054962827523e-05</v>
+        <v>0.000775667591808693</v>
       </c>
       <c r="P2" t="n">
-        <v>1.981184556317888</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4654476241970418, 2.496921488438735]</t>
+          <t>[0.7232895999255788, 2.081816152829271]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>8.341698443103951e-10</v>
+        <v>0.0001418292840915658</v>
       </c>
       <c r="S2" t="n">
-        <v>8.341698443103951e-10</v>
+        <v>0.0001418292840915658</v>
       </c>
       <c r="T2" t="n">
-        <v>67.78906701511309</v>
+        <v>66.79675138563073</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[53.057205724303685, 82.5209283059225]</t>
+          <t>[52.82389692945434, 80.7696058418071]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.323519403077626e-12</v>
+        <v>1.680211525467712e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>5.323519403077626e-12</v>
+        <v>1.680211525467712e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>17.79495495495538</v>
+        <v>19.62914914914955</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.66164164164202</v>
+        <v>16.8972572572576</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.92826826826874</v>
+        <v>22.36104104104149</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.27000000000051</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.263501187451446e-05</v>
+        <v>6.682380358946638e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>4.263501187451446e-05</v>
+        <v>6.682380358946638e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>41.28555549840154</v>
+        <v>47.8625396829872</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[21.61077542697012, 60.96033556983295]</t>
+          <t>[25.05218533787513, 70.67289402809928]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001144918681363905</v>
+        <v>0.000114578684549782</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001144918681363905</v>
+        <v>0.000114578684549782</v>
       </c>
       <c r="P3" t="n">
-        <v>1.427710775505272</v>
+        <v>0.9119738433844242</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.861658045128733, 1.9937635058818106]</t>
+          <t>[0.4339737599553466, 1.3899739268135018]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.044243359066726e-06</v>
+        <v>0.0003791280885354631</v>
       </c>
       <c r="S3" t="n">
-        <v>7.044243359066726e-06</v>
+        <v>0.0003791280885354631</v>
       </c>
       <c r="T3" t="n">
-        <v>60.10646442365576</v>
+        <v>56.48253428684242</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[48.06571554349004, 72.14721330382147]</t>
+          <t>[44.37089769043256, 68.59417088325227]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.389821839367869e-13</v>
+        <v>3.564482042861528e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>4.389821839367869e-13</v>
+        <v>3.564482042861528e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>20.08436436436484</v>
+        <v>21.60218218218262</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.74292292292335</v>
+        <v>19.67973973974014</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.42580580580634</v>
+        <v>23.5246246246251</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.27000000000051</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.137887753026149e-07</v>
+        <v>9.244644137984537e-07</v>
       </c>
       <c r="I4" t="n">
-        <v>5.137887753026149e-07</v>
+        <v>9.244644137984537e-07</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>52.93978578011221</v>
+        <v>62.65779910652726</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[31.098288122016484, 74.78128343820794]</t>
+          <t>[34.25203418400481, 91.06356402904972]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.362037535823646e-05</v>
+        <v>5.728154358797255e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.362037535823646e-05</v>
+        <v>5.728154358797255e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5975001042863468</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.16981581911296129, 1.0251843894597323]</t>
+          <t>[0.4339737599553466, 1.2893423303021176]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.007234478205516925</v>
+        <v>0.0001947624936069481</v>
       </c>
       <c r="S4" t="n">
-        <v>0.007234478205516925</v>
+        <v>0.0001947624936069481</v>
       </c>
       <c r="T4" t="n">
-        <v>56.92643290047059</v>
+        <v>60.09696635884057</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[45.497298169159265, 68.35556763178192]</t>
+          <t>[45.82027085735113, 74.37366186033]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>4.705125178361413e-13</v>
+        <v>7.013434277780561e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>4.705125178361413e-13</v>
+        <v>7.013434277780561e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>23.51847847847904</v>
+        <v>21.80454454454499</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.74938938938991</v>
+        <v>20.08446446446487</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.28756756756817</v>
+        <v>23.5246246246251</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.27000000000051</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.000887690086261661</v>
+        <v>0.006101990500341992</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000887690086261661</v>
+        <v>0.006101990500341992</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>40.95747589843733</v>
+        <v>37.73019271703791</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[15.175472862575191, 66.73947893429947]</t>
+          <t>[9.349704341300779, 66.11068109277504]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.002522823303553245</v>
+        <v>0.01031199090372303</v>
       </c>
       <c r="O5" t="n">
-        <v>0.002522823303553245</v>
+        <v>0.01031199090372303</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4591316590831935</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.2201316173686534, 1.1383949355350405]</t>
+          <t>[-0.4968685077749617, 1.1887107337907326]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.1801702110084309</v>
+        <v>0.4127781120012937</v>
       </c>
       <c r="S5" t="n">
-        <v>0.1801702110084309</v>
+        <v>0.4127781120012937</v>
       </c>
       <c r="T5" t="n">
-        <v>51.57401542087204</v>
+        <v>65.57744842488076</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[37.785460785304785, 65.3625700564393]</t>
+          <t>[50.1195242610537, 81.03537258870782]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.660075854559295e-09</v>
+        <v>5.63562529976025e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>1.660075854559295e-09</v>
+        <v>5.63562529976025e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>24.09083083083141</v>
+        <v>23.87875875875924</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.28110110110161</v>
+        <v>20.4891891891896</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.9005605605612</v>
+        <v>27.26832832832888</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.54000000000024</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.839671729455318e-07</v>
+        <v>3.493770103335514e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>3.839671729455318e-07</v>
+        <v>3.493770103335514e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>55.6140775628056</v>
+        <v>57.02758348838873</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[33.66971654990307, 77.55843857570814]</t>
+          <t>[31.167362929325222, 82.88780404745224]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>6.493144864228029e-06</v>
+        <v>5.750106846602598e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>6.493144864228029e-06</v>
+        <v>5.750106846602598e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.3773684869176925</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.8050527720910781, 0.10063159651138509]</t>
+          <t>[-0.8427896207828471, 0.08805264694746207]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.1242317158919686</v>
+        <v>0.1094356498973896</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1242317158919686</v>
+        <v>0.1094356498973896</v>
       </c>
       <c r="T6" t="n">
-        <v>64.2098381437019</v>
+        <v>59.95047192476803</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[51.879761908015425, 76.53991437938838]</t>
+          <t>[45.848593124947044, 74.05235072458902]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.143529715363911e-13</v>
+        <v>5.311262540885764e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.143529715363911e-13</v>
+        <v>5.311262540885764e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>1.319559559559572</v>
+        <v>1.409609609609621</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.3770170170170226</v>
+        <v>-0.3289089089089146</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.016136136136167</v>
+        <v>3.148128128128157</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.54000000000024</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.586556030580129</v>
+        <v>0.002429835127527702</v>
       </c>
       <c r="I7" t="n">
-        <v>0.586556030580129</v>
+        <v>0.002429835127527702</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>11.08330939697693</v>
+        <v>39.39045286941312</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[-18.01788171315833, 40.18450050711218]</t>
+          <t>[11.497782728931497, 67.28312300989475]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.4470401914856685</v>
+        <v>0.006673251294213589</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4470401914856685</v>
+        <v>0.006673251294213589</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6603948521059619</v>
+        <v>-0.2767368904063083</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.4717635893108896, 3.7925532935228135]</t>
+          <t>[-1.1006580868432705, 0.5471843060306538]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.6731078855633443</v>
+        <v>0.5021904075763328</v>
       </c>
       <c r="S7" t="n">
-        <v>0.6731078855633443</v>
+        <v>0.5021904075763328</v>
       </c>
       <c r="T7" t="n">
-        <v>57.53996632521</v>
+        <v>58.64033834136815</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[42.32121674905164, 72.75871590136836]</t>
+          <t>[43.41837300221529, 73.86230368052101]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.259604420766891e-09</v>
+        <v>7.74735164910112e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>1.259604420766891e-09</v>
+        <v>7.74735164910112e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>21.06582582582604</v>
+        <v>1.033713713713727</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.331171171171265</v>
+        <v>-2.043933933933948</v>
       </c>
       <c r="Z7" t="n">
-        <v>32.80048048048082</v>
+        <v>4.111361361361402</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.54000000000024</v>
+        <v>23.47000000000023</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>8.139166135512355e-06</v>
+        <v>6.173351095761781e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>8.139166135512355e-06</v>
+        <v>6.173351095761781e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.5511339757145</v>
+        <v>42.63795568158794</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.21079593631603, 76.89147201511297]</t>
+          <t>[23.355880365041813, 61.92003099813407]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.207779598044745e-05</v>
+        <v>5.528336068083561e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.207779598044745e-05</v>
+        <v>5.528336068083561e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.006289474781961957</v>
+        <v>0.006289474781961069</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.5220264069028095, 0.5094474573388856]</t>
+          <t>[-0.6100790538502716, 0.6226580034141938]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.9805127398549558</v>
+        <v>0.9836938307947101</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9805127398549558</v>
+        <v>0.9836938307947101</v>
       </c>
       <c r="T8" t="n">
-        <v>60.57930095554254</v>
+        <v>51.787711635656</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.44095686562211, 74.71764504546297]</t>
+          <t>[39.32125337923047, 64.25416989208153]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.25224300215632e-11</v>
+        <v>1.014119899167554e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>4.25224300215632e-11</v>
+        <v>1.014119899167554e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0235635635635667</v>
+        <v>23.44650650650674</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.908648648648668</v>
+        <v>21.14414414414435</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.955775775775801</v>
+        <v>25.74886886886912</v>
       </c>
     </row>
   </sheetData>
